--- a/docs/assets/disciplinas/LOQ4231.xlsx
+++ b/docs/assets/disciplinas/LOQ4231.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar ao aluno de Engenharia conceitos básicos da Ciência Econômica</t>
+    <t>5840671 - Francisco José Moreira Chaves</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840671 - Francisco José Moreira Chaves</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>História do Pensamento Econômico. Conceitos da Micro e Macroeconomia. Análise da Economia Brasileira</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,12 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1.Introdução: história do pensamento econômico.
-2.Microeconomia: oferta, demanda e mercado; elasticidade e estruturas de mercado (concorrência perfeita, monopólio e oligopólio).
-3. Macroeconomia: teoria geral do emprego; juros e a moeda, Sistema Financeiro, Banco Central; Políticas Econômicas: inflação, crescimento, endividamento, balanço de pagamentos e comércio exterior.
-4.Economia brasileira</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,29 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas Expositivas; trabalhos em grupo; exercícios individuais e palestras.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = (0,30*P1 + 0,60*P2 + 0,20*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BEGG, D.; DORNBUSCH, R.; FISCHER, S. Introdução A Economia. Rio de Janeiro: Campus, 2003. 
-HUNT, E.K.; SHERMAN, H.J. História do Pensamento Econômico. Petrópolis: Vozes, 2000.
-BACHA , Edmar. Introdução à Macroeconomia: Uma perspectiva brasileira. Rio de Janeiro: Campus,1987.
-ROSSETTI, José Pascoal .Introdução à Economia.  9.ed. São Paulo: Atlas, 1982.
-SAMUELSON, P. Introdução à Economia. New York: Mc Graw-Hill Book Company.</t>
   </si>
 </sst>
 </file>
@@ -487,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4231.xlsx
+++ b/docs/assets/disciplinas/LOQ4231.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar ao aluno de Engenharia conceitos básicos da Ciência Econômica</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840671 - Francisco José Moreira Chaves</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>História do Pensamento Econômico. Conceitos da Micro e Macroeconomia. Análise da Economia Brasileira</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,12 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.Introdução: história do pensamento econômico.
+2.Microeconomia: oferta, demanda e mercado; elasticidade e estruturas de mercado (concorrência perfeita, monopólio e oligopólio).
+3. Macroeconomia: teoria geral do emprego; juros e a moeda, Sistema Financeiro, Banco Central; Políticas Econômicas: inflação, crescimento, endividamento, balanço de pagamentos e comércio exterior.
+4.Economia brasileira</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +109,29 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas Expositivas; trabalhos em grupo; exercícios individuais e palestras.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas Expositivas; trabalhos em grupo; exercícios individuais e palestras.</t>
+    <t>MF = (0,30*P1 + 0,60*P2 + 0,20*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = (0,30*P1 + 0,60*P2 + 0,20*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
+    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.</t>
+    <t>BEGG, D.; DORNBUSCH, R.; FISCHER, S. Introdução A Economia. Rio de Janeiro: Campus, 2003. 
+HUNT, E.K.; SHERMAN, H.J. História do Pensamento Econômico. Petrópolis: Vozes, 2000.
+BACHA , Edmar. Introdução à Macroeconomia: Uma perspectiva brasileira. Rio de Janeiro: Campus,1987.
+ROSSETTI, José Pascoal .Introdução à Economia.  9.ed. São Paulo: Atlas, 1982.
+SAMUELSON, P. Introdução à Economia. New York: Mc Graw-Hill Book Company.</t>
   </si>
 </sst>
 </file>
@@ -471,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -596,85 +612,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
